--- a/Tests/Validation/Wheat/Phenology/Observed/OtherPhenologyObs.xlsx
+++ b/Tests/Validation/Wheat/Phenology/Observed/OtherPhenologyObs.xlsx
@@ -36,2432 +36,2432 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="808">
-  <si>
-    <t>CPTCultAlbericSow2002-05-15</t>
-  </si>
-  <si>
-    <t>HarvestRipe</t>
-  </si>
-  <si>
-    <t>CPTCultAlbericSow2002-09-09</t>
-  </si>
-  <si>
-    <t>CPTCultAlbericSow2003-03-14</t>
-  </si>
-  <si>
-    <t>CPTCultAlbericSow2003-05-21</t>
-  </si>
-  <si>
-    <t>CPTCultAlbericSow2003-09-02</t>
-  </si>
-  <si>
-    <t>CPTCultAlbericSow2004-03-23</t>
-  </si>
-  <si>
-    <t>CPTCultAlbericSow2004-05-28</t>
-  </si>
-  <si>
-    <t>CPTCultAlbericSow2004-09-06</t>
-  </si>
-  <si>
-    <t>CPTCultAlbericSow2005-04-04</t>
-  </si>
-  <si>
-    <t>CPTCultAlbericSow2005-05-27</t>
-  </si>
-  <si>
-    <t>CPTCultAlbericSow2005-09-05</t>
-  </si>
-  <si>
-    <t>CPTCultAmarokSow2001-04-09</t>
-  </si>
-  <si>
-    <t>CPTCultAmarokSow2001-06-15</t>
-  </si>
-  <si>
-    <t>CPTCultAmarokSow2002-03-07</t>
-  </si>
-  <si>
-    <t>CPTCultAmarokSow2002-05-15</t>
-  </si>
-  <si>
-    <t>CPTCultAmarokSow2003-03-14</t>
-  </si>
-  <si>
-    <t>CPTCultAmarokSow2003-05-21</t>
-  </si>
-  <si>
-    <t>CPTCultAmarokSow2004-03-23</t>
-  </si>
-  <si>
-    <t>CPTCultAmarokSow2004-05-28</t>
-  </si>
-  <si>
-    <t>CPTCultAmarokSow2005-04-04</t>
-  </si>
-  <si>
-    <t>CPTCultAmarokSow2005-05-27</t>
-  </si>
-  <si>
-    <t>CPTCultAmarokSow2006-03-13</t>
-  </si>
-  <si>
-    <t>CPTCultAmarokSow2006-05-10</t>
-  </si>
-  <si>
-    <t>CPTCultAmarokSow2007-04-24</t>
-  </si>
-  <si>
-    <t>CPTCultAmarokSow2007-06-28</t>
-  </si>
-  <si>
-    <t>CPTCultAmarokSow2008-04-11</t>
-  </si>
-  <si>
-    <t>CPTCultAmarokSow2008-06-06</t>
-  </si>
-  <si>
-    <t>CPTCultAmarokSow2009-03-20</t>
-  </si>
-  <si>
-    <t>CPTCultAmarokSow2009-06-05</t>
-  </si>
-  <si>
-    <t>CPTCultAmarokSow2009-08-24</t>
-  </si>
-  <si>
-    <t>CPTCultAmarokSow2010-03-30</t>
-  </si>
-  <si>
-    <t>CPTCultAmarokSow2010-07-06</t>
-  </si>
-  <si>
-    <t>CPTCultAmarokSow2011-03-30</t>
-  </si>
-  <si>
-    <t>CPTCultAmarokSow2011-05-11</t>
-  </si>
-  <si>
-    <t>CPTCultAmarokSow2012-04-05</t>
-  </si>
-  <si>
-    <t>CPTCultAmarokSow2012-06-28</t>
-  </si>
-  <si>
-    <t>CPTCultAspiringSow2005-05-27</t>
-  </si>
-  <si>
-    <t>CPTCultAspiringSow2006-03-13</t>
-  </si>
-  <si>
-    <t>CPTCultAspiringSow2006-05-10</t>
-  </si>
-  <si>
-    <t>CPTCultAspiringSow2007-04-24</t>
-  </si>
-  <si>
-    <t>CPTCultAspiringSow2007-06-28</t>
-  </si>
-  <si>
-    <t>CPTCultAspiringSow2008-04-11</t>
-  </si>
-  <si>
-    <t>CPTCultAspiringSow2008-06-06</t>
-  </si>
-  <si>
-    <t>CPTCultBattenSpringSow2009-03-20</t>
-  </si>
-  <si>
-    <t>CPTCultBattenSpringSow2009-06-05</t>
-  </si>
-  <si>
-    <t>CPTCultBattenSpringSow2009-08-24</t>
-  </si>
-  <si>
-    <t>CPTCultBattenSpringSow2010-03-30</t>
-  </si>
-  <si>
-    <t>CPTCultBattenSpringSow2010-07-06</t>
-  </si>
-  <si>
-    <t>CPTCultBattenSpringSow2010-10-04</t>
-  </si>
-  <si>
-    <t>CPTCultBattenSpringSow2010-11-30</t>
-  </si>
-  <si>
-    <t>CPTCultBattenSpringSow2011-03-30</t>
-  </si>
-  <si>
-    <t>CPTCultBattenSpringSow2011-05-11</t>
-  </si>
-  <si>
-    <t>CPTCultBattenSpringSow2011-09-09</t>
-  </si>
-  <si>
-    <t>CPTCultBattenSpringSow2012-04-05</t>
-  </si>
-  <si>
-    <t>CPTCultBattenSpringSow2012-06-28</t>
-  </si>
-  <si>
-    <t>CPTCultBattenSpringSow2012-09-25</t>
-  </si>
-  <si>
-    <t>CPTCultBattenWinterSow2009-03-20</t>
-  </si>
-  <si>
-    <t>CPTCultBattenWinterSow2009-06-05</t>
-  </si>
-  <si>
-    <t>CPTCultBattenWinterSow2009-08-24</t>
-  </si>
-  <si>
-    <t>CPTCultBattenWinterSow2010-03-30</t>
-  </si>
-  <si>
-    <t>CPTCultBattenWinterSow2010-07-06</t>
-  </si>
-  <si>
-    <t>CPTCultBattenWinterSow2011-03-30</t>
-  </si>
-  <si>
-    <t>CPTCultBattenWinterSow2011-05-11</t>
-  </si>
-  <si>
-    <t>CPTCultBattenWinterSow2011-09-09</t>
-  </si>
-  <si>
-    <t>CPTCultBattenWinterSow2012-04-05</t>
-  </si>
-  <si>
-    <t>CPTCultBattenWinterSow2012-06-28</t>
-  </si>
-  <si>
-    <t>CPTCultBattenWinterSow2012-09-25</t>
-  </si>
-  <si>
-    <t>CPTCultCentaurSow2000-03-03</t>
-  </si>
-  <si>
-    <t>CPTCultCentaurSow2000-05-15</t>
-  </si>
-  <si>
-    <t>CPTCultCentaurSow2001-04-09</t>
-  </si>
-  <si>
-    <t>CPTCultCentaurSow2001-06-15</t>
-  </si>
-  <si>
-    <t>CPTCultCentaurSow2002-03-07</t>
-  </si>
-  <si>
-    <t>CPTCultCentaurSow2002-05-15</t>
-  </si>
-  <si>
-    <t>CPTCultCentaurSow2003-03-14</t>
-  </si>
-  <si>
-    <t>CPTCultCentaurSow2003-05-21</t>
-  </si>
-  <si>
-    <t>CPTCultCentaurSow2004-03-23</t>
-  </si>
-  <si>
-    <t>CPTCultCentaurSow2004-05-28</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2000-03-03</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2000-05-15</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2001-04-09</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2001-06-15</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2001-08-09</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2002-03-07</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2002-05-15</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2002-09-09</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2003-03-14</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2003-05-21</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2003-09-02</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2004-03-23</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2004-05-28</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2004-09-06</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2005-04-04</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2005-05-27</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2005-09-05</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2006-03-13</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2006-05-10</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2007-04-24</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2007-06-28</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2007-09-13</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2008-04-11</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2008-06-06</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2008-09-11</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2009-03-20</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2009-06-05</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2009-08-24</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2010-03-30</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2010-07-06</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2011-03-30</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2011-05-11</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2011-09-09</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2012-04-05</t>
-  </si>
-  <si>
-    <t>CPTCultClaireSow2012-06-28</t>
-  </si>
-  <si>
-    <t>CPTCultConquestSow2004-05-28</t>
-  </si>
-  <si>
-    <t>CPTCultConquestSow2004-09-06</t>
-  </si>
-  <si>
-    <t>CPTCultConquestSow2005-05-27</t>
-  </si>
-  <si>
-    <t>CPTCultConquestSow2005-09-05</t>
-  </si>
-  <si>
-    <t>CPTCultConquestSow2006-05-10</t>
-  </si>
-  <si>
-    <t>CPTCultConquestSow2006-10-11</t>
-  </si>
-  <si>
-    <t>CPTCultConquestSow2007-04-24</t>
-  </si>
-  <si>
-    <t>CPTCultConquestSow2007-06-28</t>
-  </si>
-  <si>
-    <t>CPTCultConquestSow2007-09-13</t>
-  </si>
-  <si>
-    <t>CPTCultConquestSow2008-04-11</t>
-  </si>
-  <si>
-    <t>CPTCultConquestSow2008-06-06</t>
-  </si>
-  <si>
-    <t>CPTCultConquestSow2008-09-11</t>
-  </si>
-  <si>
-    <t>CPTCultConsortSow2000-05-15</t>
-  </si>
-  <si>
-    <t>CPTCultConsortSow2001-04-09</t>
-  </si>
-  <si>
-    <t>CPTCultConsortSow2001-06-15</t>
-  </si>
-  <si>
-    <t>CPTCultConsortSow2002-03-07</t>
-  </si>
-  <si>
-    <t>CPTCultConsortSow2002-05-15</t>
-  </si>
-  <si>
-    <t>CPTCultConsortSow2003-03-14</t>
-  </si>
-  <si>
-    <t>CPTCultConsortSow2003-05-21</t>
-  </si>
-  <si>
-    <t>CPTCultEinsteinSow2004-03-23</t>
-  </si>
-  <si>
-    <t>CPTCultEinsteinSow2004-05-28</t>
-  </si>
-  <si>
-    <t>CPTCultEinsteinSow2005-04-04</t>
-  </si>
-  <si>
-    <t>CPTCultEinsteinSow2005-05-27</t>
-  </si>
-  <si>
-    <t>CPTCultEinsteinSow2006-03-13</t>
-  </si>
-  <si>
-    <t>CPTCultEinsteinSow2006-05-10</t>
-  </si>
-  <si>
-    <t>CPTCultEquinoxSow2000-05-15</t>
-  </si>
-  <si>
-    <t>CPTCultEquinoxSow2001-04-09</t>
-  </si>
-  <si>
-    <t>CPTCultEquinoxSow2001-06-15</t>
-  </si>
-  <si>
-    <t>CPTCultEquinoxSow2002-03-07</t>
-  </si>
-  <si>
-    <t>CPTCultEquinoxSow2002-05-15</t>
-  </si>
-  <si>
-    <t>CPTCultEquinoxSow2003-03-14</t>
-  </si>
-  <si>
-    <t>CPTCultEquinoxSow2003-05-21</t>
-  </si>
-  <si>
-    <t>CPTCultEquinoxSow2004-03-23</t>
-  </si>
-  <si>
-    <t>CPTCultEquinoxSow2004-05-28</t>
-  </si>
-  <si>
-    <t>CPTCultExcedeSow2005-04-04</t>
-  </si>
-  <si>
-    <t>CPTCultExcedeSow2005-05-27</t>
-  </si>
-  <si>
-    <t>CPTCultExcedeSow2006-03-13</t>
-  </si>
-  <si>
-    <t>CPTCultExcedeSow2006-05-10</t>
-  </si>
-  <si>
-    <t>CPTCultExcedeSow2007-04-24</t>
-  </si>
-  <si>
-    <t>CPTCultExcedeSow2007-06-28</t>
-  </si>
-  <si>
-    <t>CPTCultH45Sow2009-03-20</t>
-  </si>
-  <si>
-    <t>CPTCultH45Sow2009-06-05</t>
-  </si>
-  <si>
-    <t>CPTCultH45Sow2009-08-24</t>
-  </si>
-  <si>
-    <t>CPTCultH45Sow2010-03-30</t>
-  </si>
-  <si>
-    <t>CPTCultH45Sow2010-07-06</t>
-  </si>
-  <si>
-    <t>CPTCultH45Sow2010-10-04</t>
-  </si>
-  <si>
-    <t>CPTCultH45Sow2010-11-30</t>
-  </si>
-  <si>
-    <t>CPTCultH45Sow2011-03-30</t>
-  </si>
-  <si>
-    <t>CPTCultH45Sow2011-05-11</t>
-  </si>
-  <si>
-    <t>CPTCultH45Sow2011-09-09</t>
-  </si>
-  <si>
-    <t>CPTCultH45Sow2012-04-05</t>
-  </si>
-  <si>
-    <t>CPTCultH45Sow2012-06-28</t>
-  </si>
-  <si>
-    <t>CPTCultH45Sow2012-09-25</t>
-  </si>
-  <si>
-    <t>CPTCultJanzSow2009-03-20CvJanz</t>
-  </si>
-  <si>
-    <t>CPTCultJanzSow2009-06-05CvJanz</t>
-  </si>
-  <si>
-    <t>CPTCultJanzSow2009-08-24CvJanz</t>
-  </si>
-  <si>
-    <t>CPTCultJanzSow2010-03-30CvJanz</t>
-  </si>
-  <si>
-    <t>CPTCultJanzSow2010-07-06CvJanz</t>
-  </si>
-  <si>
-    <t>CPTCultJanzSow2010-10-04CvJanz</t>
-  </si>
-  <si>
-    <t>CPTCultJanzSow2010-11-30CvJanz</t>
-  </si>
-  <si>
-    <t>CPTCultJanzSow2011-03-30CvJanz</t>
-  </si>
-  <si>
-    <t>CPTCultJanzSow2011-05-11CvJanz</t>
-  </si>
-  <si>
-    <t>CPTCultJanzSow2011-09-09CvJanz</t>
-  </si>
-  <si>
-    <t>CPTCultJanzSow2012-04-05CvJanz</t>
-  </si>
-  <si>
-    <t>CPTCultJanzSow2012-06-28CvJanz</t>
-  </si>
-  <si>
-    <t>CPTCultJanzSow2012-09-25CvJanz</t>
-  </si>
-  <si>
-    <t>CPTCultLangSow2009-03-20</t>
-  </si>
-  <si>
-    <t>CPTCultLangSow2009-06-05</t>
-  </si>
-  <si>
-    <t>CPTCultLangSow2009-08-24</t>
-  </si>
-  <si>
-    <t>CPTCultLangSow2010-03-30</t>
-  </si>
-  <si>
-    <t>CPTCultLangSow2010-07-06</t>
-  </si>
-  <si>
-    <t>CPTCultLangSow2010-10-04</t>
-  </si>
-  <si>
-    <t>CPTCultLangSow2010-11-30</t>
-  </si>
-  <si>
-    <t>CPTCultLangSow2011-03-30</t>
-  </si>
-  <si>
-    <t>CPTCultLangSow2011-05-11</t>
-  </si>
-  <si>
-    <t>CPTCultLangSow2011-09-09</t>
-  </si>
-  <si>
-    <t>CPTCultLangSow2012-04-05</t>
-  </si>
-  <si>
-    <t>CPTCultLangSow2012-06-28</t>
-  </si>
-  <si>
-    <t>CPTCultLangSow2012-09-25</t>
-  </si>
-  <si>
-    <t>CPTCultMacKellarSow2009-03-20</t>
-  </si>
-  <si>
-    <t>CPTCultMacKellarSow2009-06-05</t>
-  </si>
-  <si>
-    <t>CPTCultMacKellarSow2009-08-24</t>
-  </si>
-  <si>
-    <t>CPTCultMacKellarSow2010-03-30</t>
-  </si>
-  <si>
-    <t>CPTCultMacKellarSow2010-07-06</t>
-  </si>
-  <si>
-    <t>CPTCultMacKellarSow2011-03-30</t>
-  </si>
-  <si>
-    <t>CPTCultMacKellarSow2011-05-11</t>
-  </si>
-  <si>
-    <t>CPTCultMacKellarSow2012-04-05</t>
-  </si>
-  <si>
-    <t>CPTCultMacKellarSow2012-06-28</t>
-  </si>
-  <si>
-    <t>CPTCultMajesticSow2009-03-20</t>
-  </si>
-  <si>
-    <t>CPTCultMajesticSow2009-06-05</t>
-  </si>
-  <si>
-    <t>CPTCultMajesticSow2009-08-24</t>
-  </si>
-  <si>
-    <t>CPTCultMajesticSow2010-03-30</t>
-  </si>
-  <si>
-    <t>CPTCultMajesticSow2010-07-06</t>
-  </si>
-  <si>
-    <t>CPTCultMajesticSow2010-10-04</t>
-  </si>
-  <si>
-    <t>CPTCultMajesticSow2010-11-30</t>
-  </si>
-  <si>
-    <t>CPTCultMajesticSow2011-03-30</t>
-  </si>
-  <si>
-    <t>CPTCultMajesticSow2011-05-11</t>
-  </si>
-  <si>
-    <t>CPTCultMajesticSow2011-09-09</t>
-  </si>
-  <si>
-    <t>CPTCultMcCubbinSow2009-03-20</t>
-  </si>
-  <si>
-    <t>CPTCultMcCubbinSow2009-06-05</t>
-  </si>
-  <si>
-    <t>CPTCultMcCubbinSow2009-08-24</t>
-  </si>
-  <si>
-    <t>CPTCultMcCubbinSow2010-03-30</t>
-  </si>
-  <si>
-    <t>CPTCultMcCubbinSow2010-07-06</t>
-  </si>
-  <si>
-    <t>CPTCultMcCubbinSow2010-10-04</t>
-  </si>
-  <si>
-    <t>CPTCultMcCubbinSow2010-11-30</t>
-  </si>
-  <si>
-    <t>CPTCultMcCubbinSow2011-03-30</t>
-  </si>
-  <si>
-    <t>CPTCultMcCubbinSow2011-05-11</t>
-  </si>
-  <si>
-    <t>CPTCultMcCubbinSow2011-09-09</t>
-  </si>
-  <si>
-    <t>CPTCultMcCubbinSow2012-04-05</t>
-  </si>
-  <si>
-    <t>CPTCultMcCubbinSow2012-06-28</t>
-  </si>
-  <si>
-    <t>CPTCultMcCubbinSow2012-09-25</t>
-  </si>
-  <si>
-    <t>CPTCultOptionSow2002-05-15</t>
-  </si>
-  <si>
-    <t>CPTCultOptionSow2002-09-09</t>
-  </si>
-  <si>
-    <t>CPTCultOptionSow2003-03-14</t>
-  </si>
-  <si>
-    <t>CPTCultOptionSow2003-05-21</t>
-  </si>
-  <si>
-    <t>CPTCultOptionSow2003-09-02</t>
-  </si>
-  <si>
-    <t>CPTCultOptionSow2004-03-23</t>
-  </si>
-  <si>
-    <t>CPTCultOptionSow2004-05-28</t>
-  </si>
-  <si>
-    <t>CPTCultOptionSow2004-09-06</t>
-  </si>
-  <si>
-    <t>CPTCultOptionSow2005-04-04</t>
-  </si>
-  <si>
-    <t>CPTCultOptionSow2005-05-27</t>
-  </si>
-  <si>
-    <t>CPTCultOptionSow2005-09-05</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2000-05-15</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2000-09-20</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2002-05-15</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2002-09-09</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2003-05-21</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2003-09-02</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2004-05-28</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2004-09-06</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2005-04-04</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2005-05-27</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2005-09-05</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2006-05-10</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2006-10-11</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2007-04-24</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2007-06-28</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2007-09-13</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2008-04-11</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2008-06-06</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2008-09-11</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2009-03-20</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2009-06-05</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2009-08-24</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2010-03-30</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2010-07-06</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2010-10-04</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2010-11-30</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2011-03-30</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2011-05-11</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2011-09-09</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2012-04-05</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2012-06-28</t>
-  </si>
-  <si>
-    <t>CPTCultOtaneSow2012-09-25</t>
-  </si>
-  <si>
-    <t>CPTCultPennantSow2003-05-21</t>
-  </si>
-  <si>
-    <t>CPTCultPennantSow2004-03-23</t>
-  </si>
-  <si>
-    <t>CPTCultPennantSow2004-05-28</t>
-  </si>
-  <si>
-    <t>CPTCultPennantSow2005-04-04</t>
-  </si>
-  <si>
-    <t>CPTCultPennantSow2005-05-27</t>
-  </si>
-  <si>
-    <t>CPTCultPennantSow2006-03-13</t>
-  </si>
-  <si>
-    <t>CPTCultPennantSow2006-05-10</t>
-  </si>
-  <si>
-    <t>CPTCultRegencySow2000-03-03</t>
-  </si>
-  <si>
-    <t>CPTCultRegencySow2000-05-15</t>
-  </si>
-  <si>
-    <t>CPTCultRegencySow2001-04-09</t>
-  </si>
-  <si>
-    <t>CPTCultRegencySow2001-06-15</t>
-  </si>
-  <si>
-    <t>CPTCultRegencySow2001-08-09</t>
-  </si>
-  <si>
-    <t>CPTCultRegencySow2002-03-07</t>
-  </si>
-  <si>
-    <t>CPTCultRegencySow2002-05-15</t>
-  </si>
-  <si>
-    <t>CPTCultRegencySow2003-03-14</t>
-  </si>
-  <si>
-    <t>CPTCultRegencySow2003-05-21</t>
-  </si>
-  <si>
-    <t>CPTCultRegencySow2004-03-23</t>
-  </si>
-  <si>
-    <t>CPTCultRegencySow2004-05-28</t>
-  </si>
-  <si>
-    <t>CPTCultRichmondSow2007-04-24</t>
-  </si>
-  <si>
-    <t>CPTCultRichmondSow2007-06-28</t>
-  </si>
-  <si>
-    <t>CPTCultRichmondSow2008-04-11</t>
-  </si>
-  <si>
-    <t>CPTCultRichmondSow2008-06-06</t>
-  </si>
-  <si>
-    <t>CPTCultRichmondSow2009-03-20</t>
-  </si>
-  <si>
-    <t>CPTCultRichmondSow2009-06-05</t>
-  </si>
-  <si>
-    <t>CPTCultRobigusSow2007-04-24</t>
-  </si>
-  <si>
-    <t>CPTCultRobigusSow2007-06-28</t>
-  </si>
-  <si>
-    <t>CPTCultRobigusSow2007-09-13</t>
-  </si>
-  <si>
-    <t>CPTCultRobigusSow2008-04-11</t>
-  </si>
-  <si>
-    <t>CPTCultRobigusSow2008-06-06</t>
-  </si>
-  <si>
-    <t>CPTCultRobigusSow2008-09-11</t>
-  </si>
-  <si>
-    <t>CPTCultRobigusSow2009-03-20</t>
-  </si>
-  <si>
-    <t>CPTCultRobigusSow2009-06-05</t>
-  </si>
-  <si>
-    <t>CPTCultRobigusSow2009-08-24</t>
-  </si>
-  <si>
-    <t>CPTCultRubricSow2009-03-20</t>
-  </si>
-  <si>
-    <t>CPTCultRubricSow2009-06-05</t>
-  </si>
-  <si>
-    <t>CPTCultRubricSow2009-08-24</t>
-  </si>
-  <si>
-    <t>CPTCultRubricSow2010-03-30</t>
-  </si>
-  <si>
-    <t>CPTCultRubricSow2010-07-06</t>
-  </si>
-  <si>
-    <t>CPTCultRubricSow2010-10-04</t>
-  </si>
-  <si>
-    <t>CPTCultRubricSow2010-11-30</t>
-  </si>
-  <si>
-    <t>CPTCultRubricSow2011-03-30</t>
-  </si>
-  <si>
-    <t>CPTCultRubricSow2011-05-11</t>
-  </si>
-  <si>
-    <t>CPTCultRubricSow2011-09-09</t>
-  </si>
-  <si>
-    <t>CPTCultRubricSow2012-04-05</t>
-  </si>
-  <si>
-    <t>CPTCultRubricSow2012-06-28</t>
-  </si>
-  <si>
-    <t>CPTCultRubricSow2012-09-25</t>
-  </si>
-  <si>
-    <t>CPTCultSageSow2005-05-27</t>
-  </si>
-  <si>
-    <t>CPTCultSageSow2005-09-05</t>
-  </si>
-  <si>
-    <t>CPTCultSageSow2006-10-11</t>
-  </si>
-  <si>
-    <t>CPTCultSageSow2007-09-13</t>
-  </si>
-  <si>
-    <t>CPTCultSageSow2010-03-30</t>
-  </si>
-  <si>
-    <t>CPTCultSageSow2010-07-06</t>
-  </si>
-  <si>
-    <t>CPTCultSageSow2010-10-04</t>
-  </si>
-  <si>
-    <t>CPTCultSageSow2010-11-30</t>
-  </si>
-  <si>
-    <t>CPTCultSageSow2011-03-30</t>
-  </si>
-  <si>
-    <t>CPTCultSageSow2011-05-11</t>
-  </si>
-  <si>
-    <t>CPTCultSageSow2011-09-09</t>
-  </si>
-  <si>
-    <t>CPTCultSaracenSow2008-04-11</t>
-  </si>
-  <si>
-    <t>CPTCultSaracenSow2008-06-06</t>
-  </si>
-  <si>
-    <t>CPTCultSaracenSow2008-09-11</t>
-  </si>
-  <si>
-    <t>CPTCultSaracenSow2009-03-20</t>
-  </si>
-  <si>
-    <t>CPTCultSaracenSow2009-06-05</t>
-  </si>
-  <si>
-    <t>CPTCultSaracenSow2009-08-24</t>
-  </si>
-  <si>
-    <t>CPTCultSaracenSow2010-03-30</t>
-  </si>
-  <si>
-    <t>CPTCultSaracenSow2010-07-06</t>
-  </si>
-  <si>
-    <t>CPTCultSaracenSow2010-10-04</t>
-  </si>
-  <si>
-    <t>CPTCultSaracenSow2010-11-30</t>
-  </si>
-  <si>
-    <t>CPTCultSavannahSow2000-05-15</t>
-  </si>
-  <si>
-    <t>CPTCultSavannahSow2001-04-09</t>
-  </si>
-  <si>
-    <t>CPTCultSavannahSow2001-06-15</t>
-  </si>
-  <si>
-    <t>CPTCultSavannahSow2002-03-07</t>
-  </si>
-  <si>
-    <t>CPTCultSavannahSow2002-05-15</t>
-  </si>
-  <si>
-    <t>CPTCultSavannahSow2003-03-14</t>
-  </si>
-  <si>
-    <t>CPTCultSavannahSow2003-05-21</t>
-  </si>
-  <si>
-    <t>CPTCultSavannahSow2004-03-23</t>
-  </si>
-  <si>
-    <t>CPTCultSavannahSow2004-05-28</t>
-  </si>
-  <si>
-    <t>CPTCultSolsticeSow2003-05-21</t>
-  </si>
-  <si>
-    <t>CPTCultSolsticeSow2004-03-23</t>
-  </si>
-  <si>
-    <t>CPTCultSolsticeSow2004-05-28</t>
-  </si>
-  <si>
-    <t>CPTCultSolsticeSow2005-04-04</t>
-  </si>
-  <si>
-    <t>CPTCultSolsticeSow2005-05-27</t>
-  </si>
-  <si>
-    <t>CPTCultSolsticeSow2006-03-13</t>
-  </si>
-  <si>
-    <t>CPTCultSolsticeSow2006-05-10</t>
-  </si>
-  <si>
-    <t>CPTCultSuncoSow2009-03-20</t>
-  </si>
-  <si>
-    <t>CPTCultSuncoSow2009-06-05</t>
-  </si>
-  <si>
-    <t>CPTCultSuncoSow2009-08-24</t>
-  </si>
-  <si>
-    <t>CPTCultSuncoSow2010-03-30</t>
-  </si>
-  <si>
-    <t>CPTCultSuncoSow2010-07-06</t>
-  </si>
-  <si>
-    <t>CPTCultSuncoSow2010-10-04</t>
-  </si>
-  <si>
-    <t>CPTCultSuncoSow2010-11-30</t>
-  </si>
-  <si>
-    <t>CPTCultSuncoSow2011-03-30</t>
-  </si>
-  <si>
-    <t>CPTCultSuncoSow2011-05-11</t>
-  </si>
-  <si>
-    <t>CPTCultSuncoSow2011-09-09</t>
-  </si>
-  <si>
-    <t>CPTCultSuncoSow2012-04-05</t>
-  </si>
-  <si>
-    <t>CPTCultSuncoSow2012-06-28</t>
-  </si>
-  <si>
-    <t>CPTCultSuncoSow2012-09-25</t>
-  </si>
-  <si>
-    <t>CPTCultTankerSow2000-05-15</t>
-  </si>
-  <si>
-    <t>CPTCultTankerSow2001-04-09</t>
-  </si>
-  <si>
-    <t>CPTCultTankerSow2001-06-15</t>
-  </si>
-  <si>
-    <t>CPTCultTankerSow2002-03-07</t>
-  </si>
-  <si>
-    <t>CPTCultTankerSow2002-05-15</t>
-  </si>
-  <si>
-    <t>CPTCultTankerSow2003-03-14</t>
-  </si>
-  <si>
-    <t>CPTCultTankerSow2003-05-21</t>
-  </si>
-  <si>
-    <t>CPTCultTankerSow2004-03-23</t>
-  </si>
-  <si>
-    <t>CPTCultTankerSow2004-05-28</t>
-  </si>
-  <si>
-    <t>CPTCultTributeSow2002-05-15</t>
-  </si>
-  <si>
-    <t>CPTCultTributeSow2002-09-09</t>
-  </si>
-  <si>
-    <t>CPTCultTributeSow2003-05-21</t>
-  </si>
-  <si>
-    <t>CPTCultTributeSow2003-09-02</t>
-  </si>
-  <si>
-    <t>CPTCultTributeSow2004-05-28</t>
-  </si>
-  <si>
-    <t>CPTCultTributeSow2004-09-06</t>
-  </si>
-  <si>
-    <t>CPTCultTributeSow2009-03-20</t>
-  </si>
-  <si>
-    <t>CPTCultTributeSow2009-06-05</t>
-  </si>
-  <si>
-    <t>CPTCultTributeSow2009-08-24</t>
-  </si>
-  <si>
-    <t>CPTCultTributeSow2010-03-30</t>
-  </si>
-  <si>
-    <t>CPTCultTributeSow2010-07-06</t>
-  </si>
-  <si>
-    <t>CPTCultTributeSow2010-10-04</t>
-  </si>
-  <si>
-    <t>CPTCultTributeSow2010-11-30</t>
-  </si>
-  <si>
-    <t>CPTCultTributeSow2011-03-30</t>
-  </si>
-  <si>
-    <t>CPTCultTributeSow2011-05-11</t>
-  </si>
-  <si>
-    <t>CPTCultTributeSow2011-09-09</t>
-  </si>
-  <si>
-    <t>CPTCultTributeSow2012-04-05</t>
-  </si>
-  <si>
-    <t>CPTCultTributeSow2012-06-28</t>
-  </si>
-  <si>
-    <t>CPTCultTributeSow2012-09-25</t>
-  </si>
-  <si>
-    <t>CPTCultWakanuiSow2005-04-04</t>
-  </si>
-  <si>
-    <t>CPTCultWakanuiSow2005-05-27</t>
-  </si>
-  <si>
-    <t>CPTCultWakanuiSow2006-03-13</t>
-  </si>
-  <si>
-    <t>CPTCultWakanuiSow2006-05-10</t>
-  </si>
-  <si>
-    <t>CPTCultWakanuiSow2008-04-11</t>
-  </si>
-  <si>
-    <t>CPTCultWakanuiSow2008-06-06</t>
-  </si>
-  <si>
-    <t>CPTCultWestonSow2000-03-03</t>
-  </si>
-  <si>
-    <t>CPTCultWestonSow2000-05-15</t>
-  </si>
-  <si>
-    <t>CPTCultWestonSow2001-04-09</t>
-  </si>
-  <si>
-    <t>CPTCultWestonSow2001-06-15</t>
-  </si>
-  <si>
-    <t>CPTCultWestonSow2002-03-07</t>
-  </si>
-  <si>
-    <t>CPTCultWestonSow2002-05-15</t>
-  </si>
-  <si>
-    <t>CPTCultWestonSow2003-03-14</t>
-  </si>
-  <si>
-    <t>CPTCultWestonSow2003-05-21</t>
-  </si>
-  <si>
-    <t>CPTCultWestonSow2004-03-23</t>
-  </si>
-  <si>
-    <t>CPTCultWestonSow2004-05-28</t>
-  </si>
-  <si>
-    <t>CPTCultYitpiSow2009-03-20CvYitpi</t>
-  </si>
-  <si>
-    <t>CPTCultYitpiSow2009-06-05CvYitpi</t>
-  </si>
-  <si>
-    <t>CPTCultYitpiSow2009-08-24CvYitpi</t>
-  </si>
-  <si>
-    <t>CPTCultYitpiSow2010-03-30CvYitpi</t>
-  </si>
-  <si>
-    <t>CPTCultYitpiSow2010-07-06CvYitpi</t>
-  </si>
-  <si>
-    <t>CPTCultYitpiSow2010-10-04CvYitpi</t>
-  </si>
-  <si>
-    <t>CPTCultYitpiSow2010-11-30CvYitpi</t>
-  </si>
-  <si>
-    <t>CPTCultYitpiSow2011-03-30CvYitpi</t>
-  </si>
-  <si>
-    <t>CPTCultYitpiSow2011-05-11CvYitpi</t>
-  </si>
-  <si>
-    <t>CPTCultYitpiSow2011-09-09CvYitpi</t>
-  </si>
-  <si>
-    <t>CPTCultYitpiSow2012-04-05CvYitpi</t>
-  </si>
-  <si>
-    <t>CPTCultYitpiSow2012-06-28CvYitpi</t>
-  </si>
-  <si>
-    <t>CPTCultYitpiSow2012-09-25CvYitpi</t>
-  </si>
-  <si>
-    <t>SimulationName</t>
-  </si>
-  <si>
-    <t>Clock.Today</t>
-  </si>
-  <si>
-    <t>(Wheat.Leaf.Transpiration + ISoilWater.Es + MicroClimate.PrecipitationInterception)</t>
-  </si>
-  <si>
-    <t>sum(Soil.Water.MM)</t>
-  </si>
-  <si>
-    <t>Soil.Water.Volumetric(1)</t>
-  </si>
-  <si>
-    <t>Soil.Water.Volumetric(2)</t>
-  </si>
-  <si>
-    <t>Soil.Water.Volumetric(3)</t>
-  </si>
-  <si>
-    <t>Soil.Water.Volumetric(4)</t>
-  </si>
-  <si>
-    <t>Soil.Water.Volumetric(5)</t>
-  </si>
-  <si>
-    <t>Soil.Water.Volumetric(6)</t>
-  </si>
-  <si>
-    <t>Soil.Water.Volumetric(7)</t>
-  </si>
-  <si>
-    <t>Soil.Water.Volumetric(8)</t>
-  </si>
-  <si>
-    <t>Soil.Water.Volumetric(9)</t>
-  </si>
-  <si>
-    <t>Soil.Water.Volumetric(10)</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.StemNumberPerPlant</t>
-  </si>
-  <si>
-    <t>Wheat.AboveGround.N</t>
-  </si>
-  <si>
-    <t>Wheat.AboveGround.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Ear.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Ear.NConc</t>
-  </si>
-  <si>
-    <t>Wheat.Ear.N</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.NConc</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Size</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.N</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Number</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Protein</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Tips</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.CoverTotal</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.CoverGreen</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.ExtinctionCoefficient</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Height</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Dead.NConc</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Dead.N</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Dead.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.DeadCohortNo</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Ligules</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.LAI</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Live.NConc</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Live.N</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Live.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Live.StorageWt</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.SpecificAreaCanopy</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.CurrentStageName</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.TerminalSpikeletDAS</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.FlagLeafDAS</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.HeadingDAS</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.FloweringDAS</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.MaturityDAS</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.Zadok.Stage</t>
-  </si>
-  <si>
-    <t>Wheat.Population</t>
-  </si>
-  <si>
-    <t>Wheat.Spike.N</t>
-  </si>
-  <si>
-    <t>Wheat.Spike.Live.StorageWt</t>
-  </si>
-  <si>
-    <t>Wheat.Spike.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Spike.NConc</t>
-  </si>
-  <si>
-    <t>Wheat.Stem.NConc</t>
-  </si>
-  <si>
-    <t>Wheat.Stem.N</t>
-  </si>
-  <si>
-    <t>Wheat.Stem.Live.StorageWt</t>
-  </si>
-  <si>
-    <t>Wheat.Stem.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.StemPopulation</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.HaunStage</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.FinalLeafNumber</t>
-  </si>
-  <si>
-    <t>NDVIModel.Script.NDVI</t>
-  </si>
-  <si>
-    <t>Goondiwindi2011CvGregoryTOS19-May</t>
-  </si>
-  <si>
-    <t>Goondiwindi2011CvGregoryTOS28-Jun</t>
-  </si>
-  <si>
-    <t>Goondiwindi2011CvGregoryTOS9-Jun</t>
-  </si>
-  <si>
-    <t>Goondiwindi2011CvJanzTOS19-May</t>
-  </si>
-  <si>
-    <t>Goondiwindi2011CvJanzTOS28-Jun</t>
-  </si>
-  <si>
-    <t>Goondiwindi2011CvJanzTOS9-Jun</t>
-  </si>
-  <si>
-    <t>Goondiwindi2011CvLangTOS19-May</t>
-  </si>
-  <si>
-    <t>Goondiwindi2011CvLangTOS28-Jun</t>
-  </si>
-  <si>
-    <t>Goondiwindi2011CvLangTOS9-Jun</t>
-  </si>
-  <si>
-    <t>Nagwee2012CvGregoryTOS17-May</t>
-  </si>
-  <si>
-    <t>Nagwee2012CvGregoryTOS23-Jun</t>
-  </si>
-  <si>
-    <t>Nagwee2012CvGregoryTOS31-May</t>
-  </si>
-  <si>
-    <t>Nagwee2012CvJanzTOS17-May</t>
-  </si>
-  <si>
-    <t>Nagwee2012CvJanzTOS23-Jun</t>
-  </si>
-  <si>
-    <t>Nagwee2012CvJanzTOS31-May</t>
-  </si>
-  <si>
-    <t>Nagwee2012CvLangTOS17-May</t>
-  </si>
-  <si>
-    <t>Nagwee2012CvLangTOS23-Jun</t>
-  </si>
-  <si>
-    <t>Nagwee2012CvLangTOS31-May</t>
-  </si>
-  <si>
-    <t>Bungunya2012CvGregoryTOS10-May</t>
-  </si>
-  <si>
-    <t>Bungunya2012CvGregoryTOS22-May</t>
-  </si>
-  <si>
-    <t>Bungunya2012CvGregoryTOS23-Jun</t>
-  </si>
-  <si>
-    <t>Bungunya2012CvJanzTOS10-May</t>
-  </si>
-  <si>
-    <t>Bungunya2012CvJanzTOS22-May</t>
-  </si>
-  <si>
-    <t>Bungunya2012CvJanzTOS23-Jun</t>
-  </si>
-  <si>
-    <t>Bungunya2012CvLangTOS10-May</t>
-  </si>
-  <si>
-    <t>Bungunya2012CvLangTOS22-May</t>
-  </si>
-  <si>
-    <t>Bungunya2012CvLangTOS23-Jun</t>
-  </si>
-  <si>
-    <t>Goondiwindi1996CvBataviaTOS16-Apr</t>
-  </si>
-  <si>
-    <t>Goondiwindi1996CvBataviaTOS24-May</t>
-  </si>
-  <si>
-    <t>Goondiwindi1996CvBataviaTOS30-Jun</t>
-  </si>
-  <si>
-    <t>Goondiwindi1996CvCunninghamTOS16-Apr</t>
-  </si>
-  <si>
-    <t>Goondiwindi1996CvCunninghamTOS24-May</t>
-  </si>
-  <si>
-    <t>Goondiwindi1996CvCunninghamTOS30-Jun</t>
-  </si>
-  <si>
-    <t>Goondiwindi1996CvHartogTOS16-Apr</t>
-  </si>
-  <si>
-    <t>Goondiwindi1996CvHartogTOS24-May</t>
-  </si>
-  <si>
-    <t>Goondiwindi1996CvHartogTOS30-Jun</t>
-  </si>
-  <si>
-    <t>Goondiwindi1996CvJanzTOS16-Apr</t>
-  </si>
-  <si>
-    <t>Goondiwindi1996CvJanzTOS24-May</t>
-  </si>
-  <si>
-    <t>Goondiwindi1996CvJanzTOS30-Jun</t>
-  </si>
-  <si>
-    <t>Goondiwindi1996CvSunbriTOS16-Apr</t>
-  </si>
-  <si>
-    <t>Goondiwindi1996CvSunbriTOS24-May</t>
-  </si>
-  <si>
-    <t>Goondiwindi1996CvSunbriTOS30-Jun</t>
-  </si>
-  <si>
-    <t>Goondiwindi1996CvSunecaTOS16-Apr</t>
-  </si>
-  <si>
-    <t>Goondiwindi1996CvSunecaTOS24-May</t>
-  </si>
-  <si>
-    <t>Goondiwindi1996CvSunecaTOS30-Jun</t>
-  </si>
-  <si>
-    <t>Miles1996CvBataviaTOS11-May</t>
-  </si>
-  <si>
-    <t>Miles1996CvBataviaTOS16-Jul</t>
-  </si>
-  <si>
-    <t>Miles1996CvBataviaTOS18-Apr</t>
-  </si>
-  <si>
-    <t>Miles1996CvBataviaTOS1-Jun</t>
-  </si>
-  <si>
-    <t>Miles1996CvBataviaTOS21-Jun</t>
-  </si>
-  <si>
-    <t>Miles1996CvCunninghamTOS11-May</t>
-  </si>
-  <si>
-    <t>Miles1996CvCunninghamTOS16-Jul</t>
-  </si>
-  <si>
-    <t>Miles1996CvCunninghamTOS18-Apr</t>
-  </si>
-  <si>
-    <t>Miles1996CvCunninghamTOS1-Jun</t>
-  </si>
-  <si>
-    <t>Miles1996CvCunninghamTOS21-Jun</t>
-  </si>
-  <si>
-    <t>Miles1996CvHartogTOS11-May</t>
-  </si>
-  <si>
-    <t>Miles1996CvHartogTOS16-Jul</t>
-  </si>
-  <si>
-    <t>Miles1996CvHartogTOS18-Apr</t>
-  </si>
-  <si>
-    <t>Miles1996CvHartogTOS1-Jun</t>
-  </si>
-  <si>
-    <t>Miles1996CvHartogTOS21-Jun</t>
-  </si>
-  <si>
-    <t>Miles1996CvJanzTOS11-May</t>
-  </si>
-  <si>
-    <t>Miles1996CvJanzTOS16-Jul</t>
-  </si>
-  <si>
-    <t>Miles1996CvJanzTOS18-Apr</t>
-  </si>
-  <si>
-    <t>Miles1996CvJanzTOS1-Jun</t>
-  </si>
-  <si>
-    <t>Miles1996CvJanzTOS21-Jun</t>
-  </si>
-  <si>
-    <t>Miles1996CvSunbriTOS11-May</t>
-  </si>
-  <si>
-    <t>Miles1996CvSunbriTOS16-Jul</t>
-  </si>
-  <si>
-    <t>Miles1996CvSunbriTOS18-Apr</t>
-  </si>
-  <si>
-    <t>Miles1996CvSunbriTOS1-Jun</t>
-  </si>
-  <si>
-    <t>Miles1996CvSunbriTOS21-Jun</t>
-  </si>
-  <si>
-    <t>Miles1996CvSunecaTOS11-May</t>
-  </si>
-  <si>
-    <t>Miles1996CvSunecaTOS16-Jul</t>
-  </si>
-  <si>
-    <t>Miles1996CvSunecaTOS18-Apr</t>
-  </si>
-  <si>
-    <t>Miles1996CvSunecaTOS1-Jun</t>
-  </si>
-  <si>
-    <t>Miles1996CvSunecaTOS21-Jun</t>
-  </si>
-  <si>
-    <t>Emerald1996CvBataviaTOS11-Apr</t>
-  </si>
-  <si>
-    <t>Emerald1996CvBataviaTOS16-Jun</t>
-  </si>
-  <si>
-    <t>Emerald1996CvBataviaTOS21-May</t>
-  </si>
-  <si>
-    <t>Emerald1996CvBataviaTOS6-May</t>
-  </si>
-  <si>
-    <t>Emerald1996CvCunninghamTOS11-Apr</t>
-  </si>
-  <si>
-    <t>Emerald1996CvCunninghamTOS16-Jun</t>
-  </si>
-  <si>
-    <t>Emerald1996CvCunninghamTOS21-May</t>
-  </si>
-  <si>
-    <t>Emerald1996CvCunninghamTOS6-May</t>
-  </si>
-  <si>
-    <t>Emerald1996CvHartogTOS11-Apr</t>
-  </si>
-  <si>
-    <t>Emerald1996CvHartogTOS16-Jun</t>
-  </si>
-  <si>
-    <t>Emerald1996CvHartogTOS21-May</t>
-  </si>
-  <si>
-    <t>Emerald1996CvHartogTOS6-May</t>
-  </si>
-  <si>
-    <t>Emerald1996CvJanzTOS11-Apr</t>
-  </si>
-  <si>
-    <t>Emerald1996CvJanzTOS16-Jun</t>
-  </si>
-  <si>
-    <t>Emerald1996CvJanzTOS21-May</t>
-  </si>
-  <si>
-    <t>Emerald1996CvJanzTOS6-May</t>
-  </si>
-  <si>
-    <t>Emerald1996CvSunbriTOS11-Apr</t>
-  </si>
-  <si>
-    <t>Emerald1996CvSunbriTOS16-Jun</t>
-  </si>
-  <si>
-    <t>Emerald1996CvSunbriTOS21-May</t>
-  </si>
-  <si>
-    <t>Emerald1996CvSunbriTOS6-May</t>
-  </si>
-  <si>
-    <t>Emerald1996CvSunecaTOS11-Apr</t>
-  </si>
-  <si>
-    <t>Emerald1996CvSunecaTOS16-Jun</t>
-  </si>
-  <si>
-    <t>Emerald1996CvSunecaTOS21-May</t>
-  </si>
-  <si>
-    <t>Emerald1996CvSunecaTOS6-May</t>
-  </si>
-  <si>
-    <t>Biloela1996CvBataviaTOS11-Apr</t>
-  </si>
-  <si>
-    <t>Biloela1996CvBataviaTOS13-Jun</t>
-  </si>
-  <si>
-    <t>Biloela1996CvBataviaTOS15-May</t>
-  </si>
-  <si>
-    <t>Biloela1996CvBataviaTOS16-Jul</t>
-  </si>
-  <si>
-    <t>Biloela1996CvBataviaTOS29-Apr</t>
-  </si>
-  <si>
-    <t>Biloela1996CvCunninghamTOS11-Apr</t>
-  </si>
-  <si>
-    <t>Biloela1996CvCunninghamTOS13-Jun</t>
-  </si>
-  <si>
-    <t>Biloela1996CvCunninghamTOS15-May</t>
-  </si>
-  <si>
-    <t>Biloela1996CvCunninghamTOS16-Jul</t>
-  </si>
-  <si>
-    <t>Biloela1996CvCunninghamTOS29-Apr</t>
-  </si>
-  <si>
-    <t>Biloela1996CvHartogTOS11-Apr</t>
-  </si>
-  <si>
-    <t>Biloela1996CvHartogTOS13-Jun</t>
-  </si>
-  <si>
-    <t>Biloela1996CvHartogTOS15-May</t>
-  </si>
-  <si>
-    <t>Biloela1996CvHartogTOS16-Jul</t>
-  </si>
-  <si>
-    <t>Biloela1996CvHartogTOS29-Apr</t>
-  </si>
-  <si>
-    <t>Biloela1996CvJanzTOS11-Apr</t>
-  </si>
-  <si>
-    <t>Biloela1996CvJanzTOS13-Jun</t>
-  </si>
-  <si>
-    <t>Biloela1996CvJanzTOS15-May</t>
-  </si>
-  <si>
-    <t>Biloela1996CvJanzTOS16-Jul</t>
-  </si>
-  <si>
-    <t>Biloela1996CvJanzTOS29-Apr</t>
-  </si>
-  <si>
-    <t>Biloela1996CvSunbriTOS11-Apr</t>
-  </si>
-  <si>
-    <t>Biloela1996CvSunbriTOS13-Jun</t>
-  </si>
-  <si>
-    <t>Biloela1996CvSunbriTOS15-May</t>
-  </si>
-  <si>
-    <t>Biloela1996CvSunbriTOS16-Jul</t>
-  </si>
-  <si>
-    <t>Biloela1996CvSunbriTOS29-Apr</t>
-  </si>
-  <si>
-    <t>Biloela1996CvSunecaTOS11-Apr</t>
-  </si>
-  <si>
-    <t>Biloela1996CvSunecaTOS13-Jun</t>
-  </si>
-  <si>
-    <t>Biloela1996CvSunecaTOS15-May</t>
-  </si>
-  <si>
-    <t>Biloela1996CvSunecaTOS16-Jul</t>
-  </si>
-  <si>
-    <t>Biloela1996CvSunecaTOS29-Apr</t>
-  </si>
-  <si>
-    <t>Moree1996CvBataviaTOS16-May</t>
-  </si>
-  <si>
-    <t>Moree1996CvBataviaTOS18-Jul</t>
-  </si>
-  <si>
-    <t>Moree1996CvBataviaTOS7-May</t>
-  </si>
-  <si>
-    <t>Moree1996CvCunninghamTOS16-May</t>
-  </si>
-  <si>
-    <t>Moree1996CvCunninghamTOS18-Jul</t>
-  </si>
-  <si>
-    <t>Moree1996CvCunninghamTOS7-May</t>
-  </si>
-  <si>
-    <t>Moree1996CvHartogTOS16-May</t>
-  </si>
-  <si>
-    <t>Moree1996CvHartogTOS18-Jul</t>
-  </si>
-  <si>
-    <t>Moree1996CvHartogTOS7-May</t>
-  </si>
-  <si>
-    <t>Moree1996CvJanzTOS16-May</t>
-  </si>
-  <si>
-    <t>Moree1996CvJanzTOS18-Jul</t>
-  </si>
-  <si>
-    <t>Moree1996CvJanzTOS7-May</t>
-  </si>
-  <si>
-    <t>Moree1996CvSunbriTOS16-May</t>
-  </si>
-  <si>
-    <t>Moree1996CvSunbriTOS18-Jul</t>
-  </si>
-  <si>
-    <t>Moree1996CvSunbriTOS7-May</t>
-  </si>
-  <si>
-    <t>Moree1996CvSunecaTOS16-May</t>
-  </si>
-  <si>
-    <t>Moree1996CvSunecaTOS18-Jul</t>
-  </si>
-  <si>
-    <t>Moree1996CvSunecaTOS7-May</t>
-  </si>
-  <si>
-    <t>Walpeup2011CvAxeTOS1-Jul</t>
-  </si>
-  <si>
-    <t>Walpeup2011CvAxeTOS29-Apr</t>
-  </si>
-  <si>
-    <t>Walpeup2011CvAxeTOS31-May</t>
-  </si>
-  <si>
-    <t>Walpeup2011CvGregoryTOS1-Jul</t>
-  </si>
-  <si>
-    <t>Walpeup2011CvGregoryTOS29-Apr</t>
-  </si>
-  <si>
-    <t>Walpeup2011CvGregoryTOS31-May</t>
-  </si>
-  <si>
-    <t>Walpeup2011CvJanzTOS1-Jul</t>
-  </si>
-  <si>
-    <t>Walpeup2011CvJanzTOS29-Apr</t>
-  </si>
-  <si>
-    <t>Walpeup2011CvJanzTOS31-May</t>
-  </si>
-  <si>
-    <t>Walpeup2011CvYitpiTOS1-Jul</t>
-  </si>
-  <si>
-    <t>Walpeup2011CvYitpiTOS29-Apr</t>
-  </si>
-  <si>
-    <t>Walpeup2011CvYitpiTOS31-May</t>
-  </si>
-  <si>
-    <t>Walpeup2012CvGregoryTOS18-Jul</t>
-  </si>
-  <si>
-    <t>Walpeup2012CvGregoryTOS27-Apr</t>
-  </si>
-  <si>
-    <t>Walpeup2012CvGregoryTOS4-Jun</t>
-  </si>
-  <si>
-    <t>Walpeup2012CvJanzTOS18-Jul</t>
-  </si>
-  <si>
-    <t>Walpeup2012CvJanzTOS27-Apr</t>
-  </si>
-  <si>
-    <t>Walpeup2012CvJanzTOS4-Jun</t>
-  </si>
-  <si>
-    <t>Walpeup2012CvYitpiTOS18-Jul</t>
-  </si>
-  <si>
-    <t>Walpeup2012CvYitpiTOS27-Apr</t>
-  </si>
-  <si>
-    <t>Walpeup2012CvYitpiTOS4-Jun</t>
-  </si>
-  <si>
-    <t>Minnipa2012CvAxeTOS25-Jun</t>
-  </si>
-  <si>
-    <t>Minnipa2012CvAxeTOS25-May</t>
-  </si>
-  <si>
-    <t>Minnipa2012CvAxeTOS8-Jun</t>
-  </si>
-  <si>
-    <t>Minnipa2012CvGregoryTOS25-Jun</t>
-  </si>
-  <si>
-    <t>Minnipa2012CvGregoryTOS25-May</t>
-  </si>
-  <si>
-    <t>Minnipa2012CvGregoryTOS8-Jun</t>
-  </si>
-  <si>
-    <t>Minnipa2012CvJanzTOS25-Jun</t>
-  </si>
-  <si>
-    <t>Minnipa2012CvJanzTOS25-May</t>
-  </si>
-  <si>
-    <t>Minnipa2012CvJanzTOS8-Jun</t>
-  </si>
-  <si>
-    <t>Temora2012CvAxeTOS23-May</t>
-  </si>
-  <si>
-    <t>Temora2012CvAxeTOS25-Jun</t>
-  </si>
-  <si>
-    <t>Temora2012CvAxeTOS5-May</t>
-  </si>
-  <si>
-    <t>Temora2012CvGregoryTOS23-May</t>
-  </si>
-  <si>
-    <t>Temora2012CvGregoryTOS25-Jun</t>
-  </si>
-  <si>
-    <t>Temora2012CvGregoryTOS5-May</t>
-  </si>
-  <si>
-    <t>Temora2012CvJanzTOS23-May</t>
-  </si>
-  <si>
-    <t>Temora2012CvJanzTOS25-Jun</t>
-  </si>
-  <si>
-    <t>Temora2012CvJanzTOS5-May</t>
-  </si>
-  <si>
-    <t>Birchip2011TOS1CvAxe</t>
-  </si>
-  <si>
-    <t>Birchip2011TOS1CvBolac</t>
-  </si>
-  <si>
-    <t>Birchip2011TOS1CvDerrimut</t>
-  </si>
-  <si>
-    <t>Birchip2011TOS1CvEaglehawk</t>
-  </si>
-  <si>
-    <t>Birchip2011TOS1CvGregory</t>
-  </si>
-  <si>
-    <t>Birchip2011TOS1CvLincoln</t>
-  </si>
-  <si>
-    <t>Birchip2011TOS1CvMace</t>
-  </si>
-  <si>
-    <t>Birchip2011TOS1CvScout</t>
-  </si>
-  <si>
-    <t>Birchip2011TOS2CvAxe</t>
-  </si>
-  <si>
-    <t>Birchip2011TOS2CvBolac</t>
-  </si>
-  <si>
-    <t>Birchip2011TOS2CvDerrimut</t>
-  </si>
-  <si>
-    <t>Birchip2011TOS2CvEaglehawk</t>
-  </si>
-  <si>
-    <t>Birchip2011TOS2CvGregory</t>
-  </si>
-  <si>
-    <t>Birchip2011TOS2CvLincoln</t>
-  </si>
-  <si>
-    <t>Birchip2011TOS2CvMace</t>
-  </si>
-  <si>
-    <t>Birchip2011TOS2CvScout</t>
-  </si>
-  <si>
-    <t>Tarlee2011TOS1CvAxe</t>
-  </si>
-  <si>
-    <t>Tarlee2011TOS1CvBolac</t>
-  </si>
-  <si>
-    <t>Tarlee2011TOS1CvDerrimut</t>
-  </si>
-  <si>
-    <t>Tarlee2011TOS1CvEaglehawk</t>
-  </si>
-  <si>
-    <t>Tarlee2011TOS1CvGregory</t>
-  </si>
-  <si>
-    <t>Tarlee2011TOS1CvLincoln</t>
-  </si>
-  <si>
-    <t>Tarlee2011TOS1CvMace</t>
-  </si>
-  <si>
-    <t>Tarlee2011TOS1CvScout</t>
-  </si>
-  <si>
-    <t>Tarlee2011TOS2CvAxe</t>
-  </si>
-  <si>
-    <t>Tarlee2011TOS2CvBolac</t>
-  </si>
-  <si>
-    <t>Tarlee2011TOS2CvDerrimut</t>
-  </si>
-  <si>
-    <t>Tarlee2011TOS2CvEaglehawk</t>
-  </si>
-  <si>
-    <t>Tarlee2011TOS2CvGregory</t>
-  </si>
-  <si>
-    <t>Tarlee2011TOS2CvLincoln</t>
-  </si>
-  <si>
-    <t>Tarlee2011TOS2CvMace</t>
-  </si>
-  <si>
-    <t>Tarlee2011TOS2CvScout</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvBataviaTOS10-May</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvBataviaTOS12-Jul</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvBataviaTOS14-Jun</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvBataviaTOS17-May</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvBataviaTOS19-Apr</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvBataviaTOS19-Jul</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvBataviaTOS21-Jun</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvBataviaTOS24-May</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvBataviaTOS26-Apr</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvBataviaTOS26-Jul</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvBataviaTOS28-Jun</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvBataviaTOS31-May</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvBataviaTOS3-May</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvBataviaTOS5-Jul</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvBataviaTOS7-Jun</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvHartogTOS10-May</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvHartogTOS12-Jul</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvHartogTOS14-Jun</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvHartogTOS17-May</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvHartogTOS19-Apr</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvHartogTOS19-Jul</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvHartogTOS21-Jun</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvHartogTOS24-May</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvHartogTOS26-Apr</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvHartogTOS26-Jul</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvHartogTOS28-Jun</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvHartogTOS31-May</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvHartogTOS3-May</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvHartogTOS5-Jul</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvHartogTOS7-Jun</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunbriTOS10-May</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunbriTOS12-Jul</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunbriTOS14-Jun</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunbriTOS17-May</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunbriTOS19-Apr</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunbriTOS19-Jul</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunbriTOS21-Jun</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunbriTOS24-May</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunbriTOS26-Apr</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunbriTOS26-Jul</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunbriTOS28-Jun</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunbriTOS31-May</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunbriTOS3-May</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunbriTOS5-Jul</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunbriTOS7-Jun</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSuncoTOS10-May</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSuncoTOS12-Jul</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSuncoTOS14-Jun</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSuncoTOS17-May</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSuncoTOS19-Apr</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSuncoTOS19-Jul</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSuncoTOS21-Jun</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSuncoTOS24-May</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSuncoTOS26-Apr</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSuncoTOS26-Jul</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSuncoTOS28-Jun</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSuncoTOS31-May</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSuncoTOS3-May</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSuncoTOS5-Jul</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSuncoTOS7-Jun</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunecaTOS10-May</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunecaTOS12-Jul</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunecaTOS14-Jun</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunecaTOS17-May</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunecaTOS19-Apr</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunecaTOS19-Jul</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunecaTOS21-Jun</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunecaTOS24-May</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunecaTOS26-Apr</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunecaTOS26-Jul</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunecaTOS28-Jun</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunecaTOS31-May</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunecaTOS3-May</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunecaTOS5-Jul</t>
-  </si>
-  <si>
-    <t>Tamworth1992CvSunecaTOS7-Jun</t>
-  </si>
-  <si>
-    <t>Griffith1983CVEgretTOS11-Aug</t>
-  </si>
-  <si>
-    <t>Griffith1983CVEgretTOS12-May</t>
-  </si>
-  <si>
-    <t>Griffith1983CVEgretTOS15-Apr</t>
-  </si>
-  <si>
-    <t>Griffith1983CVEgretTOS17-Jun</t>
-  </si>
-  <si>
-    <t>Griffith1983CVEgretTOS23-Sep</t>
-  </si>
-  <si>
-    <t>Griffith1983CVUQ189TOS11-Aug</t>
-  </si>
-  <si>
-    <t>Griffith1983CVUQ189TOS12-May</t>
-  </si>
-  <si>
-    <t>Griffith1983CVUQ189TOS15-Apr</t>
-  </si>
-  <si>
-    <t>Griffith1983CVUQ189TOS17-Jun</t>
-  </si>
-  <si>
-    <t>Griffith1983CVUQ189TOS23-Sep</t>
-  </si>
-  <si>
-    <t>Griffith1983CVWW33GTOS11-Aug</t>
-  </si>
-  <si>
-    <t>Griffith1983CVWW33GTOS12-May</t>
-  </si>
-  <si>
-    <t>Griffith1983CVWW33GTOS15-Apr</t>
-  </si>
-  <si>
-    <t>Griffith1983CVWW33GTOS17-Jun</t>
-  </si>
-  <si>
-    <t>Griffith1983CVWW33GTOS23-Sep</t>
-  </si>
-  <si>
-    <t>Griffith1983CVYecoraTOS11-Aug</t>
-  </si>
-  <si>
-    <t>Griffith1983CVYecoraTOS12-May</t>
-  </si>
-  <si>
-    <t>Griffith1983CVYecoraTOS15-Apr</t>
-  </si>
-  <si>
-    <t>Griffith1983CVYecoraTOS17-Jun</t>
-  </si>
-  <si>
-    <t>Griffith1983CVYecoraTOS23-Sep</t>
-  </si>
-  <si>
-    <t>Griffith1984CVEgretTOS18-May</t>
-  </si>
-  <si>
-    <t>Griffith1984CVEgretTOS3-Jul</t>
-  </si>
-  <si>
-    <t>Griffith1984CVHartogTOS18-May</t>
-  </si>
-  <si>
-    <t>Griffith1984CVHartogTOS3-Jul</t>
-  </si>
-  <si>
-    <t>Griffith1984CVYecoraTOS18-May</t>
-  </si>
-  <si>
-    <t>Griffith1984CVYecoraTOS3-Jul</t>
-  </si>
-  <si>
-    <t>Nangwee2012CultJanzTOS17-May]</t>
-  </si>
-  <si>
-    <t>Nangwee2012CultJanzTOS31-May</t>
-  </si>
-  <si>
-    <t>Nangwee2012CultJanzTOS23-Jun</t>
-  </si>
-  <si>
-    <t>Nangwee2012CultLangTOS17-May</t>
-  </si>
-  <si>
-    <t>Nangwee2012CultLangTOS31-May</t>
-  </si>
-  <si>
-    <t>Nangwee2012CultLangTOS23-Jun</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="808">
+  <x:si>
+    <x:t>CPTCultAlbericSow2002-05-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HarvestRipe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAlbericSow2002-09-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAlbericSow2003-03-14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAlbericSow2003-05-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAlbericSow2003-09-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAlbericSow2004-03-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAlbericSow2004-05-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAlbericSow2004-09-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAlbericSow2005-04-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAlbericSow2005-05-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAlbericSow2005-09-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAmarokSow2001-04-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAmarokSow2001-06-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAmarokSow2002-03-07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAmarokSow2002-05-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAmarokSow2003-03-14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAmarokSow2003-05-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAmarokSow2004-03-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAmarokSow2004-05-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAmarokSow2005-04-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAmarokSow2005-05-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAmarokSow2006-03-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAmarokSow2006-05-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAmarokSow2007-04-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAmarokSow2007-06-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAmarokSow2008-04-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAmarokSow2008-06-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAmarokSow2009-03-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAmarokSow2009-06-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAmarokSow2009-08-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAmarokSow2010-03-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAmarokSow2010-07-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAmarokSow2011-03-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAmarokSow2011-05-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAmarokSow2012-04-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAmarokSow2012-06-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAspiringSow2005-05-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAspiringSow2006-03-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAspiringSow2006-05-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAspiringSow2007-04-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAspiringSow2007-06-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAspiringSow2008-04-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultAspiringSow2008-06-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultBattenSpringSow2009-03-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultBattenSpringSow2009-06-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultBattenSpringSow2009-08-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultBattenSpringSow2010-03-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultBattenSpringSow2010-07-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultBattenSpringSow2010-10-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultBattenSpringSow2010-11-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultBattenSpringSow2011-03-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultBattenSpringSow2011-05-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultBattenSpringSow2011-09-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultBattenSpringSow2012-04-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultBattenSpringSow2012-06-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultBattenSpringSow2012-09-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultBattenWinterSow2009-03-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultBattenWinterSow2009-06-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultBattenWinterSow2009-08-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultBattenWinterSow2010-03-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultBattenWinterSow2010-07-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultBattenWinterSow2011-03-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultBattenWinterSow2011-05-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultBattenWinterSow2011-09-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultBattenWinterSow2012-04-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultBattenWinterSow2012-06-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultBattenWinterSow2012-09-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultCentaurSow2000-03-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultCentaurSow2000-05-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultCentaurSow2001-04-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultCentaurSow2001-06-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultCentaurSow2002-03-07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultCentaurSow2002-05-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultCentaurSow2003-03-14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultCentaurSow2003-05-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultCentaurSow2004-03-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultCentaurSow2004-05-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2000-03-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2000-05-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2001-04-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2001-06-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2001-08-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2002-03-07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2002-05-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2002-09-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2003-03-14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2003-05-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2003-09-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2004-03-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2004-05-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2004-09-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2005-04-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2005-05-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2005-09-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2006-03-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2006-05-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2007-04-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2007-06-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2007-09-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2008-04-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2008-06-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2008-09-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2009-03-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2009-06-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2009-08-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2010-03-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2010-07-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2011-03-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2011-05-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2011-09-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2012-04-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultClaireSow2012-06-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultConquestSow2004-05-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultConquestSow2004-09-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultConquestSow2005-05-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultConquestSow2005-09-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultConquestSow2006-05-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultConquestSow2006-10-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultConquestSow2007-04-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultConquestSow2007-06-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultConquestSow2007-09-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultConquestSow2008-04-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultConquestSow2008-06-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultConquestSow2008-09-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultConsortSow2000-05-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultConsortSow2001-04-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultConsortSow2001-06-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultConsortSow2002-03-07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultConsortSow2002-05-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultConsortSow2003-03-14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultConsortSow2003-05-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultEinsteinSow2004-03-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultEinsteinSow2004-05-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultEinsteinSow2005-04-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultEinsteinSow2005-05-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultEinsteinSow2006-03-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultEinsteinSow2006-05-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultEquinoxSow2000-05-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultEquinoxSow2001-04-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultEquinoxSow2001-06-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultEquinoxSow2002-03-07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultEquinoxSow2002-05-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultEquinoxSow2003-03-14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultEquinoxSow2003-05-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultEquinoxSow2004-03-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultEquinoxSow2004-05-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultExcedeSow2005-04-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultExcedeSow2005-05-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultExcedeSow2006-03-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultExcedeSow2006-05-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultExcedeSow2007-04-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultExcedeSow2007-06-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultH45Sow2009-03-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultH45Sow2009-06-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultH45Sow2009-08-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultH45Sow2010-03-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultH45Sow2010-07-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultH45Sow2010-10-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultH45Sow2010-11-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultH45Sow2011-03-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultH45Sow2011-05-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultH45Sow2011-09-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultH45Sow2012-04-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultH45Sow2012-06-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultH45Sow2012-09-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultJanzSow2009-03-20CvJanz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultJanzSow2009-06-05CvJanz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultJanzSow2009-08-24CvJanz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultJanzSow2010-03-30CvJanz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultJanzSow2010-07-06CvJanz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultJanzSow2010-10-04CvJanz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultJanzSow2010-11-30CvJanz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultJanzSow2011-03-30CvJanz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultJanzSow2011-05-11CvJanz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultJanzSow2011-09-09CvJanz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultJanzSow2012-04-05CvJanz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultJanzSow2012-06-28CvJanz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultJanzSow2012-09-25CvJanz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultLangSow2009-03-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultLangSow2009-06-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultLangSow2009-08-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultLangSow2010-03-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultLangSow2010-07-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultLangSow2010-10-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultLangSow2010-11-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultLangSow2011-03-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultLangSow2011-05-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultLangSow2011-09-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultLangSow2012-04-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultLangSow2012-06-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultLangSow2012-09-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMacKellarSow2009-03-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMacKellarSow2009-06-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMacKellarSow2009-08-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMacKellarSow2010-03-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMacKellarSow2010-07-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMacKellarSow2011-03-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMacKellarSow2011-05-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMacKellarSow2012-04-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMacKellarSow2012-06-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMajesticSow2009-03-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMajesticSow2009-06-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMajesticSow2009-08-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMajesticSow2010-03-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMajesticSow2010-07-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMajesticSow2010-10-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMajesticSow2010-11-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMajesticSow2011-03-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMajesticSow2011-05-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMajesticSow2011-09-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMcCubbinSow2009-03-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMcCubbinSow2009-06-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMcCubbinSow2009-08-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMcCubbinSow2010-03-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMcCubbinSow2010-07-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMcCubbinSow2010-10-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMcCubbinSow2010-11-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMcCubbinSow2011-03-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMcCubbinSow2011-05-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMcCubbinSow2011-09-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMcCubbinSow2012-04-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMcCubbinSow2012-06-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultMcCubbinSow2012-09-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOptionSow2002-05-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOptionSow2002-09-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOptionSow2003-03-14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOptionSow2003-05-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOptionSow2003-09-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOptionSow2004-03-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOptionSow2004-05-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOptionSow2004-09-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOptionSow2005-04-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOptionSow2005-05-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOptionSow2005-09-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2000-05-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2000-09-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2002-05-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2002-09-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2003-05-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2003-09-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2004-05-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2004-09-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2005-04-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2005-05-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2005-09-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2006-05-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2006-10-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2007-04-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2007-06-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2007-09-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2008-04-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2008-06-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2008-09-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2009-03-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2009-06-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2009-08-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2010-03-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2010-07-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2010-10-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2010-11-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2011-03-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2011-05-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2011-09-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2012-04-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2012-06-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultOtaneSow2012-09-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultPennantSow2003-05-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultPennantSow2004-03-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultPennantSow2004-05-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultPennantSow2005-04-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultPennantSow2005-05-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultPennantSow2006-03-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultPennantSow2006-05-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRegencySow2000-03-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRegencySow2000-05-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRegencySow2001-04-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRegencySow2001-06-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRegencySow2001-08-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRegencySow2002-03-07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRegencySow2002-05-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRegencySow2003-03-14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRegencySow2003-05-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRegencySow2004-03-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRegencySow2004-05-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRichmondSow2007-04-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRichmondSow2007-06-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRichmondSow2008-04-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRichmondSow2008-06-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRichmondSow2009-03-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRichmondSow2009-06-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRobigusSow2007-04-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRobigusSow2007-06-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRobigusSow2007-09-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRobigusSow2008-04-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRobigusSow2008-06-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRobigusSow2008-09-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRobigusSow2009-03-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRobigusSow2009-06-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRobigusSow2009-08-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRubricSow2009-03-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRubricSow2009-06-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRubricSow2009-08-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRubricSow2010-03-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRubricSow2010-07-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRubricSow2010-10-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRubricSow2010-11-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRubricSow2011-03-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRubricSow2011-05-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRubricSow2011-09-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRubricSow2012-04-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRubricSow2012-06-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultRubricSow2012-09-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSageSow2005-05-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSageSow2005-09-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSageSow2006-10-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSageSow2007-09-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSageSow2010-03-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSageSow2010-07-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSageSow2010-10-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSageSow2010-11-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSageSow2011-03-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSageSow2011-05-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSageSow2011-09-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSaracenSow2008-04-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSaracenSow2008-06-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSaracenSow2008-09-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSaracenSow2009-03-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSaracenSow2009-06-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSaracenSow2009-08-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSaracenSow2010-03-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSaracenSow2010-07-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSaracenSow2010-10-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSaracenSow2010-11-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSavannahSow2000-05-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSavannahSow2001-04-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSavannahSow2001-06-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSavannahSow2002-03-07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSavannahSow2002-05-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSavannahSow2003-03-14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSavannahSow2003-05-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSavannahSow2004-03-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSavannahSow2004-05-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSolsticeSow2003-05-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSolsticeSow2004-03-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSolsticeSow2004-05-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSolsticeSow2005-04-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSolsticeSow2005-05-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSolsticeSow2006-03-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSolsticeSow2006-05-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSuncoSow2009-03-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSuncoSow2009-06-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSuncoSow2009-08-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSuncoSow2010-03-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSuncoSow2010-07-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSuncoSow2010-10-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSuncoSow2010-11-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSuncoSow2011-03-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSuncoSow2011-05-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSuncoSow2011-09-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSuncoSow2012-04-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSuncoSow2012-06-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultSuncoSow2012-09-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultTankerSow2000-05-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultTankerSow2001-04-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultTankerSow2001-06-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultTankerSow2002-03-07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultTankerSow2002-05-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultTankerSow2003-03-14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultTankerSow2003-05-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultTankerSow2004-03-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultTankerSow2004-05-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultTributeSow2002-05-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultTributeSow2002-09-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultTributeSow2003-05-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultTributeSow2003-09-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultTributeSow2004-05-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultTributeSow2004-09-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultTributeSow2009-03-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultTributeSow2009-06-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultTributeSow2009-08-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultTributeSow2010-03-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultTributeSow2010-07-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultTributeSow2010-10-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultTributeSow2010-11-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultTributeSow2011-03-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultTributeSow2011-05-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultTributeSow2011-09-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultTributeSow2012-04-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultTributeSow2012-06-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultTributeSow2012-09-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultWakanuiSow2005-04-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultWakanuiSow2005-05-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultWakanuiSow2006-03-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultWakanuiSow2006-05-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultWakanuiSow2008-04-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultWakanuiSow2008-06-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultWestonSow2000-03-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultWestonSow2000-05-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultWestonSow2001-04-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultWestonSow2001-06-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultWestonSow2002-03-07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultWestonSow2002-05-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultWestonSow2003-03-14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultWestonSow2003-05-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultWestonSow2004-03-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultWestonSow2004-05-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultYitpiSow2009-03-20CvYitpi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultYitpiSow2009-06-05CvYitpi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultYitpiSow2009-08-24CvYitpi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultYitpiSow2010-03-30CvYitpi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultYitpiSow2010-07-06CvYitpi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultYitpiSow2010-10-04CvYitpi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultYitpiSow2010-11-30CvYitpi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultYitpiSow2011-03-30CvYitpi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultYitpiSow2011-05-11CvYitpi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultYitpiSow2011-09-09CvYitpi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultYitpiSow2012-04-05CvYitpi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultYitpiSow2012-06-28CvYitpi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CPTCultYitpiSow2012-09-25CvYitpi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SimulationName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clock.Today</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(Wheat.Leaf.Transpiration + ISoilWater.Es + MicroClimate.PrecipitationInterception)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sum(Soil.Water.MM)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Soil.Water.Volumetric(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Soil.Water.Volumetric(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Soil.Water.Volumetric(3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Soil.Water.Volumetric(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Soil.Water.Volumetric(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Soil.Water.Volumetric(6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Soil.Water.Volumetric(7)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Soil.Water.Volumetric(8)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Soil.Water.Volumetric(9)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Soil.Water.Volumetric(10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.StemNumberPerPlant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.AboveGround.N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.AboveGround.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Ear.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Ear.NConc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Ear.N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.NConc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Size</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Protein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Tips</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.CoverTotal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.CoverGreen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.ExtinctionCoefficient</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Height</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Dead.NConc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Dead.N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Dead.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.DeadCohortNo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Ligules</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.LAI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Live.NConc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Live.N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Live.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Live.StorageWt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.SpecificAreaCanopy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.CurrentStageName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.TerminalSpikeletDAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.FlagLeafDAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.HeadingDAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.FloweringDAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.MaturityDAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.Zadok.Stage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Population</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Spike.N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Spike.Live.StorageWt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Spike.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Spike.NConc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Stem.NConc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Stem.N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Stem.Live.StorageWt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Stem.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.StemPopulation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.HaunStage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.FinalLeafNumber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spectral.NDVI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goondiwindi2011CvGregoryTOS19-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goondiwindi2011CvGregoryTOS28-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goondiwindi2011CvGregoryTOS9-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goondiwindi2011CvJanzTOS19-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goondiwindi2011CvJanzTOS28-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goondiwindi2011CvJanzTOS9-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goondiwindi2011CvLangTOS19-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goondiwindi2011CvLangTOS28-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goondiwindi2011CvLangTOS9-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nagwee2012CvGregoryTOS17-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nagwee2012CvGregoryTOS23-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nagwee2012CvGregoryTOS31-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nagwee2012CvJanzTOS17-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nagwee2012CvJanzTOS23-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nagwee2012CvJanzTOS31-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nagwee2012CvLangTOS17-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nagwee2012CvLangTOS23-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nagwee2012CvLangTOS31-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bungunya2012CvGregoryTOS10-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bungunya2012CvGregoryTOS22-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bungunya2012CvGregoryTOS23-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bungunya2012CvJanzTOS10-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bungunya2012CvJanzTOS22-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bungunya2012CvJanzTOS23-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bungunya2012CvLangTOS10-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bungunya2012CvLangTOS22-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bungunya2012CvLangTOS23-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goondiwindi1996CvBataviaTOS16-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goondiwindi1996CvBataviaTOS24-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goondiwindi1996CvBataviaTOS30-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goondiwindi1996CvCunninghamTOS16-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goondiwindi1996CvCunninghamTOS24-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goondiwindi1996CvCunninghamTOS30-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goondiwindi1996CvHartogTOS16-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goondiwindi1996CvHartogTOS24-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goondiwindi1996CvHartogTOS30-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goondiwindi1996CvJanzTOS16-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goondiwindi1996CvJanzTOS24-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goondiwindi1996CvJanzTOS30-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goondiwindi1996CvSunbriTOS16-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goondiwindi1996CvSunbriTOS24-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goondiwindi1996CvSunbriTOS30-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goondiwindi1996CvSunecaTOS16-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goondiwindi1996CvSunecaTOS24-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goondiwindi1996CvSunecaTOS30-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvBataviaTOS11-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvBataviaTOS16-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvBataviaTOS18-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvBataviaTOS1-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvBataviaTOS21-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvCunninghamTOS11-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvCunninghamTOS16-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvCunninghamTOS18-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvCunninghamTOS1-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvCunninghamTOS21-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvHartogTOS11-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvHartogTOS16-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvHartogTOS18-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvHartogTOS1-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvHartogTOS21-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvJanzTOS11-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvJanzTOS16-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvJanzTOS18-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvJanzTOS1-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvJanzTOS21-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvSunbriTOS11-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvSunbriTOS16-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvSunbriTOS18-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvSunbriTOS1-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvSunbriTOS21-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvSunecaTOS11-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvSunecaTOS16-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvSunecaTOS18-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvSunecaTOS1-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Miles1996CvSunecaTOS21-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emerald1996CvBataviaTOS11-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emerald1996CvBataviaTOS16-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emerald1996CvBataviaTOS21-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emerald1996CvBataviaTOS6-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emerald1996CvCunninghamTOS11-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emerald1996CvCunninghamTOS16-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emerald1996CvCunninghamTOS21-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emerald1996CvCunninghamTOS6-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emerald1996CvHartogTOS11-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emerald1996CvHartogTOS16-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emerald1996CvHartogTOS21-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emerald1996CvHartogTOS6-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emerald1996CvJanzTOS11-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emerald1996CvJanzTOS16-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emerald1996CvJanzTOS21-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emerald1996CvJanzTOS6-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emerald1996CvSunbriTOS11-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emerald1996CvSunbriTOS16-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emerald1996CvSunbriTOS21-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emerald1996CvSunbriTOS6-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emerald1996CvSunecaTOS11-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emerald1996CvSunecaTOS16-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emerald1996CvSunecaTOS21-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emerald1996CvSunecaTOS6-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvBataviaTOS11-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvBataviaTOS13-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvBataviaTOS15-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvBataviaTOS16-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvBataviaTOS29-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvCunninghamTOS11-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvCunninghamTOS13-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvCunninghamTOS15-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvCunninghamTOS16-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvCunninghamTOS29-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvHartogTOS11-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvHartogTOS13-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvHartogTOS15-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvHartogTOS16-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvHartogTOS29-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvJanzTOS11-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvJanzTOS13-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvJanzTOS15-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvJanzTOS16-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvJanzTOS29-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvSunbriTOS11-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvSunbriTOS13-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvSunbriTOS15-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvSunbriTOS16-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvSunbriTOS29-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvSunecaTOS11-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvSunecaTOS13-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvSunecaTOS15-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvSunecaTOS16-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Biloela1996CvSunecaTOS29-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moree1996CvBataviaTOS16-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moree1996CvBataviaTOS18-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moree1996CvBataviaTOS7-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moree1996CvCunninghamTOS16-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moree1996CvCunninghamTOS18-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moree1996CvCunninghamTOS7-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moree1996CvHartogTOS16-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moree1996CvHartogTOS18-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moree1996CvHartogTOS7-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moree1996CvJanzTOS16-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moree1996CvJanzTOS18-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moree1996CvJanzTOS7-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moree1996CvSunbriTOS16-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moree1996CvSunbriTOS18-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moree1996CvSunbriTOS7-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moree1996CvSunecaTOS16-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moree1996CvSunecaTOS18-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moree1996CvSunecaTOS7-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walpeup2011CvAxeTOS1-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walpeup2011CvAxeTOS29-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walpeup2011CvAxeTOS31-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walpeup2011CvGregoryTOS1-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walpeup2011CvGregoryTOS29-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walpeup2011CvGregoryTOS31-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walpeup2011CvJanzTOS1-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walpeup2011CvJanzTOS29-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walpeup2011CvJanzTOS31-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walpeup2011CvYitpiTOS1-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walpeup2011CvYitpiTOS29-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walpeup2011CvYitpiTOS31-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walpeup2012CvGregoryTOS18-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walpeup2012CvGregoryTOS27-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walpeup2012CvGregoryTOS4-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walpeup2012CvJanzTOS18-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walpeup2012CvJanzTOS27-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walpeup2012CvJanzTOS4-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walpeup2012CvYitpiTOS18-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walpeup2012CvYitpiTOS27-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walpeup2012CvYitpiTOS4-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2012CvAxeTOS25-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2012CvAxeTOS25-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2012CvAxeTOS8-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2012CvGregoryTOS25-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2012CvGregoryTOS25-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2012CvGregoryTOS8-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2012CvJanzTOS25-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2012CvJanzTOS25-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnipa2012CvJanzTOS8-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Temora2012CvAxeTOS23-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Temora2012CvAxeTOS25-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Temora2012CvAxeTOS5-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Temora2012CvGregoryTOS23-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Temora2012CvGregoryTOS25-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Temora2012CvGregoryTOS5-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Temora2012CvJanzTOS23-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Temora2012CvJanzTOS25-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Temora2012CvJanzTOS5-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Birchip2011TOS1CvAxe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Birchip2011TOS1CvBolac</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Birchip2011TOS1CvDerrimut</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Birchip2011TOS1CvEaglehawk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Birchip2011TOS1CvGregory</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Birchip2011TOS1CvLincoln</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Birchip2011TOS1CvMace</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Birchip2011TOS1CvScout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Birchip2011TOS2CvAxe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Birchip2011TOS2CvBolac</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Birchip2011TOS2CvDerrimut</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Birchip2011TOS2CvEaglehawk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Birchip2011TOS2CvGregory</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Birchip2011TOS2CvLincoln</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Birchip2011TOS2CvMace</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Birchip2011TOS2CvScout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tarlee2011TOS1CvAxe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tarlee2011TOS1CvBolac</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tarlee2011TOS1CvDerrimut</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tarlee2011TOS1CvEaglehawk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tarlee2011TOS1CvGregory</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tarlee2011TOS1CvLincoln</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tarlee2011TOS1CvMace</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tarlee2011TOS1CvScout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tarlee2011TOS2CvAxe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tarlee2011TOS2CvBolac</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tarlee2011TOS2CvDerrimut</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tarlee2011TOS2CvEaglehawk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tarlee2011TOS2CvGregory</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tarlee2011TOS2CvLincoln</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tarlee2011TOS2CvMace</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tarlee2011TOS2CvScout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvBataviaTOS10-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvBataviaTOS12-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvBataviaTOS14-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvBataviaTOS17-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvBataviaTOS19-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvBataviaTOS19-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvBataviaTOS21-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvBataviaTOS24-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvBataviaTOS26-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvBataviaTOS26-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvBataviaTOS28-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvBataviaTOS31-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvBataviaTOS3-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvBataviaTOS5-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvBataviaTOS7-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvHartogTOS10-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvHartogTOS12-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvHartogTOS14-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvHartogTOS17-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvHartogTOS19-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvHartogTOS19-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvHartogTOS21-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvHartogTOS24-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvHartogTOS26-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvHartogTOS26-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvHartogTOS28-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvHartogTOS31-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvHartogTOS3-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvHartogTOS5-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvHartogTOS7-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunbriTOS10-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunbriTOS12-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunbriTOS14-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunbriTOS17-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunbriTOS19-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunbriTOS19-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunbriTOS21-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunbriTOS24-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunbriTOS26-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunbriTOS26-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunbriTOS28-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunbriTOS31-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunbriTOS3-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunbriTOS5-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunbriTOS7-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSuncoTOS10-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSuncoTOS12-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSuncoTOS14-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSuncoTOS17-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSuncoTOS19-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSuncoTOS19-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSuncoTOS21-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSuncoTOS24-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSuncoTOS26-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSuncoTOS26-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSuncoTOS28-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSuncoTOS31-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSuncoTOS3-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSuncoTOS5-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSuncoTOS7-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunecaTOS10-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunecaTOS12-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunecaTOS14-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunecaTOS17-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunecaTOS19-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunecaTOS19-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunecaTOS21-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunecaTOS24-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunecaTOS26-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunecaTOS26-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunecaTOS28-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunecaTOS31-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunecaTOS3-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunecaTOS5-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamworth1992CvSunecaTOS7-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Griffith1983CVEgretTOS11-Aug</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Griffith1983CVEgretTOS12-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Griffith1983CVEgretTOS15-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Griffith1983CVEgretTOS17-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Griffith1983CVEgretTOS23-Sep</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Griffith1983CVUQ189TOS11-Aug</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Griffith1983CVUQ189TOS12-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Griffith1983CVUQ189TOS15-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Griffith1983CVUQ189TOS17-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Griffith1983CVUQ189TOS23-Sep</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Griffith1983CVWW33GTOS11-Aug</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Griffith1983CVWW33GTOS12-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Griffith1983CVWW33GTOS15-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Griffith1983CVWW33GTOS17-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Griffith1983CVWW33GTOS23-Sep</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Griffith1983CVYecoraTOS11-Aug</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Griffith1983CVYecoraTOS12-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Griffith1983CVYecoraTOS15-Apr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Griffith1983CVYecoraTOS17-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Griffith1983CVYecoraTOS23-Sep</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Griffith1984CVEgretTOS18-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Griffith1984CVEgretTOS3-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Griffith1984CVHartogTOS18-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Griffith1984CVHartogTOS3-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Griffith1984CVYecoraTOS18-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Griffith1984CVYecoraTOS3-Jul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nangwee2012CultJanzTOS17-May]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nangwee2012CultJanzTOS31-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nangwee2012CultJanzTOS23-Jun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nangwee2012CultLangTOS17-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nangwee2012CultLangTOS31-May</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nangwee2012CultLangTOS23-Jun</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
